--- a/200_otherdata_inspection_Rpgmstmnt.xlsx
+++ b/200_otherdata_inspection_Rpgmstmnt.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="498">
   <si>
     <t>sec001 &lt;- readRDS("D:/Hospital_data/ProgresSQL/analysis/sec001.rds")</t>
   </si>
@@ -45,9 +45,6 @@
     <t>sec001_1t &lt;- sec001_1t [, nrow :=1:.N, by = .(variable)]</t>
   </si>
   <si>
-    <t>max001 &lt;- sec001_1t [, .(max = max(nrow)), by =.(variable)]</t>
-  </si>
-  <si>
     <t xml:space="preserve">sec001_1t2 &lt;- dcast(sec001_1t, </t>
   </si>
   <si>
@@ -216,9 +213,6 @@
     <t>sec002_1t &lt;- sec002_1t [, nrow :=1:.N, by = .(variable)]</t>
   </si>
   <si>
-    <t>max002 &lt;- sec002_1t [, .(max = max(nrow)), by =.(variable)]</t>
-  </si>
-  <si>
     <t xml:space="preserve">sec002_1t2 &lt;- dcast(sec002_1t, </t>
   </si>
   <si>
@@ -246,9 +240,6 @@
     <t>sec003_1t &lt;- sec003_1t [, nrow :=1:.N, by = .(variable)]</t>
   </si>
   <si>
-    <t>max003 &lt;- sec003_1t [, .(max = max(nrow)), by =.(variable)]</t>
-  </si>
-  <si>
     <t xml:space="preserve">sec003_1t2 &lt;- dcast(sec003_1t, </t>
   </si>
   <si>
@@ -276,9 +267,6 @@
     <t>sec004_1t &lt;- sec004_1t [, nrow :=1:.N, by = .(variable)]</t>
   </si>
   <si>
-    <t>max004 &lt;- sec004_1t [, .(max = max(nrow)), by =.(variable)]</t>
-  </si>
-  <si>
     <t xml:space="preserve">sec004_1t2 &lt;- dcast(sec004_1t, </t>
   </si>
   <si>
@@ -306,9 +294,6 @@
     <t>sec006_1t &lt;- sec006_1t [, nrow :=1:.N, by = .(variable)]</t>
   </si>
   <si>
-    <t>max006 &lt;- sec006_1t [, .(max = max(nrow)), by =.(variable)]</t>
-  </si>
-  <si>
     <t xml:space="preserve">sec006_1t2 &lt;- dcast(sec006_1t, </t>
   </si>
   <si>
@@ -336,9 +321,6 @@
     <t>sec007_1t &lt;- sec007_1t [, nrow :=1:.N, by = .(variable)]</t>
   </si>
   <si>
-    <t>max007 &lt;- sec007_1t [, .(max = max(nrow)), by =.(variable)]</t>
-  </si>
-  <si>
     <t xml:space="preserve">sec007_1t2 &lt;- dcast(sec007_1t, </t>
   </si>
   <si>
@@ -366,9 +348,6 @@
     <t>sec008_1t &lt;- sec008_1t [, nrow :=1:.N, by = .(variable)]</t>
   </si>
   <si>
-    <t>max008 &lt;- sec008_1t [, .(max = max(nrow)), by =.(variable)]</t>
-  </si>
-  <si>
     <t xml:space="preserve">sec008_1t2 &lt;- dcast(sec008_1t, </t>
   </si>
   <si>
@@ -396,9 +375,6 @@
     <t>sec009_1t &lt;- sec009_1t [, nrow :=1:.N, by = .(variable)]</t>
   </si>
   <si>
-    <t>max009 &lt;- sec009_1t [, .(max = max(nrow)), by =.(variable)]</t>
-  </si>
-  <si>
     <t xml:space="preserve">sec009_1t2 &lt;- dcast(sec009_1t, </t>
   </si>
   <si>
@@ -426,9 +402,6 @@
     <t>sec010_1t &lt;- sec010_1t [, nrow :=1:.N, by = .(variable)]</t>
   </si>
   <si>
-    <t>max010 &lt;- sec010_1t [, .(max = max(nrow)), by =.(variable)]</t>
-  </si>
-  <si>
     <t xml:space="preserve">sec010_1t2 &lt;- dcast(sec010_1t, </t>
   </si>
   <si>
@@ -456,9 +429,6 @@
     <t>sec011_1t &lt;- sec011_1t [, nrow :=1:.N, by = .(variable)]</t>
   </si>
   <si>
-    <t>max011 &lt;- sec011_1t [, .(max = max(nrow)), by =.(variable)]</t>
-  </si>
-  <si>
     <t xml:space="preserve">sec011_1t2 &lt;- dcast(sec011_1t, </t>
   </si>
   <si>
@@ -486,9 +456,6 @@
     <t>sec012_1t &lt;- sec012_1t [, nrow :=1:.N, by = .(variable)]</t>
   </si>
   <si>
-    <t>max012 &lt;- sec012_1t [, .(max = max(nrow)), by =.(variable)]</t>
-  </si>
-  <si>
     <t xml:space="preserve">sec012_1t2 &lt;- dcast(sec012_1t, </t>
   </si>
   <si>
@@ -516,9 +483,6 @@
     <t>sec013_1t &lt;- sec013_1t [, nrow :=1:.N, by = .(variable)]</t>
   </si>
   <si>
-    <t>max013 &lt;- sec013_1t [, .(max = max(nrow)), by =.(variable)]</t>
-  </si>
-  <si>
     <t xml:space="preserve">sec013_1t2 &lt;- dcast(sec013_1t, </t>
   </si>
   <si>
@@ -546,9 +510,6 @@
     <t>sec014_1t &lt;- sec014_1t [, nrow :=1:.N, by = .(variable)]</t>
   </si>
   <si>
-    <t>max014 &lt;- sec014_1t [, .(max = max(nrow)), by =.(variable)]</t>
-  </si>
-  <si>
     <t xml:space="preserve">sec014_1t2 &lt;- dcast(sec014_1t, </t>
   </si>
   <si>
@@ -576,9 +537,6 @@
     <t>sec017_1t &lt;- sec017_1t [, nrow :=1:.N, by = .(variable)]</t>
   </si>
   <si>
-    <t>max017 &lt;- sec017_1t [, .(max = max(nrow)), by =.(variable)]</t>
-  </si>
-  <si>
     <t xml:space="preserve">sec017_1t2 &lt;- dcast(sec017_1t, </t>
   </si>
   <si>
@@ -606,9 +564,6 @@
     <t>sec019_1t &lt;- sec019_1t [, nrow :=1:.N, by = .(variable)]</t>
   </si>
   <si>
-    <t>max019 &lt;- sec019_1t [, .(max = max(nrow)), by =.(variable)]</t>
-  </si>
-  <si>
     <t xml:space="preserve">sec019_1t2 &lt;- dcast(sec019_1t, </t>
   </si>
   <si>
@@ -636,9 +591,6 @@
     <t>sec020_1t &lt;- sec020_1t [, nrow :=1:.N, by = .(variable)]</t>
   </si>
   <si>
-    <t>max020 &lt;- sec020_1t [, .(max = max(nrow)), by =.(variable)]</t>
-  </si>
-  <si>
     <t xml:space="preserve">sec020_1t2 &lt;- dcast(sec020_1t, </t>
   </si>
   <si>
@@ -666,9 +618,6 @@
     <t>sec021_1t &lt;- sec021_1t [, nrow :=1:.N, by = .(variable)]</t>
   </si>
   <si>
-    <t>max021 &lt;- sec021_1t [, .(max = max(nrow)), by =.(variable)]</t>
-  </si>
-  <si>
     <t xml:space="preserve">sec021_1t2 &lt;- dcast(sec021_1t, </t>
   </si>
   <si>
@@ -696,9 +645,6 @@
     <t>sec022_1t &lt;- sec022_1t [, nrow :=1:.N, by = .(variable)]</t>
   </si>
   <si>
-    <t>max022 &lt;- sec022_1t [, .(max = max(nrow)), by =.(variable)]</t>
-  </si>
-  <si>
     <t xml:space="preserve">sec022_1t2 &lt;- dcast(sec022_1t, </t>
   </si>
   <si>
@@ -726,9 +672,6 @@
     <t>sec023_1t &lt;- sec023_1t [, nrow :=1:.N, by = .(variable)]</t>
   </si>
   <si>
-    <t>max023 &lt;- sec023_1t [, .(max = max(nrow)), by =.(variable)]</t>
-  </si>
-  <si>
     <t xml:space="preserve">sec023_1t2 &lt;- dcast(sec023_1t, </t>
   </si>
   <si>
@@ -756,9 +699,6 @@
     <t>sec024_1t &lt;- sec024_1t [, nrow :=1:.N, by = .(variable)]</t>
   </si>
   <si>
-    <t>max024 &lt;- sec024_1t [, .(max = max(nrow)), by =.(variable)]</t>
-  </si>
-  <si>
     <t xml:space="preserve">sec024_1t2 &lt;- dcast(sec024_1t, </t>
   </si>
   <si>
@@ -786,9 +726,6 @@
     <t>sec026_1t &lt;- sec026_1t [, nrow :=1:.N, by = .(variable)]</t>
   </si>
   <si>
-    <t>max026 &lt;- sec026_1t [, .(max = max(nrow)), by =.(variable)]</t>
-  </si>
-  <si>
     <t xml:space="preserve">sec026_1t2 &lt;- dcast(sec026_1t, </t>
   </si>
   <si>
@@ -816,9 +753,6 @@
     <t>sec027_1t &lt;- sec027_1t [, nrow :=1:.N, by = .(variable)]</t>
   </si>
   <si>
-    <t>max027 &lt;- sec027_1t [, .(max = max(nrow)), by =.(variable)]</t>
-  </si>
-  <si>
     <t xml:space="preserve">sec027_1t2 &lt;- dcast(sec027_1t, </t>
   </si>
   <si>
@@ -846,9 +780,6 @@
     <t>sec030_1t &lt;- sec030_1t [, nrow :=1:.N, by = .(variable)]</t>
   </si>
   <si>
-    <t>max030 &lt;- sec030_1t [, .(max = max(nrow)), by =.(variable)]</t>
-  </si>
-  <si>
     <t xml:space="preserve">sec030_1t2 &lt;- dcast(sec030_1t, </t>
   </si>
   <si>
@@ -876,9 +807,6 @@
     <t>sec031_1t &lt;- sec031_1t [, nrow :=1:.N, by = .(variable)]</t>
   </si>
   <si>
-    <t>max031 &lt;- sec031_1t [, .(max = max(nrow)), by =.(variable)]</t>
-  </si>
-  <si>
     <t xml:space="preserve">sec031_1t2 &lt;- dcast(sec031_1t, </t>
   </si>
   <si>
@@ -906,9 +834,6 @@
     <t>sec032_1t &lt;- sec032_1t [, nrow :=1:.N, by = .(variable)]</t>
   </si>
   <si>
-    <t>max032 &lt;- sec032_1t [, .(max = max(nrow)), by =.(variable)]</t>
-  </si>
-  <si>
     <t xml:space="preserve">sec032_1t2 &lt;- dcast(sec032_1t, </t>
   </si>
   <si>
@@ -936,9 +861,6 @@
     <t>sec033_1t &lt;- sec033_1t [, nrow :=1:.N, by = .(variable)]</t>
   </si>
   <si>
-    <t>max033 &lt;- sec033_1t [, .(max = max(nrow)), by =.(variable)]</t>
-  </si>
-  <si>
     <t xml:space="preserve">sec033_1t2 &lt;- dcast(sec033_1t, </t>
   </si>
   <si>
@@ -966,9 +888,6 @@
     <t>sec034_1t &lt;- sec034_1t [, nrow :=1:.N, by = .(variable)]</t>
   </si>
   <si>
-    <t>max034 &lt;- sec034_1t [, .(max = max(nrow)), by =.(variable)]</t>
-  </si>
-  <si>
     <t xml:space="preserve">sec034_1t2 &lt;- dcast(sec034_1t, </t>
   </si>
   <si>
@@ -996,9 +915,6 @@
     <t>sec035_1t &lt;- sec035_1t [, nrow :=1:.N, by = .(variable)]</t>
   </si>
   <si>
-    <t>max035 &lt;- sec035_1t [, .(max = max(nrow)), by =.(variable)]</t>
-  </si>
-  <si>
     <t xml:space="preserve">sec035_1t2 &lt;- dcast(sec035_1t, </t>
   </si>
   <si>
@@ -1026,9 +942,6 @@
     <t>sec036_1t &lt;- sec036_1t [, nrow :=1:.N, by = .(variable)]</t>
   </si>
   <si>
-    <t>max036 &lt;- sec036_1t [, .(max = max(nrow)), by =.(variable)]</t>
-  </si>
-  <si>
     <t xml:space="preserve">sec036_1t2 &lt;- dcast(sec036_1t, </t>
   </si>
   <si>
@@ -1056,9 +969,6 @@
     <t>sec037_1t &lt;- sec037_1t [, nrow :=1:.N, by = .(variable)]</t>
   </si>
   <si>
-    <t>max037 &lt;- sec037_1t [, .(max = max(nrow)), by =.(variable)]</t>
-  </si>
-  <si>
     <t xml:space="preserve">sec037_1t2 &lt;- dcast(sec037_1t, </t>
   </si>
   <si>
@@ -1086,9 +996,6 @@
     <t>sec038_1t &lt;- sec038_1t [, nrow :=1:.N, by = .(variable)]</t>
   </si>
   <si>
-    <t>max038 &lt;- sec038_1t [, .(max = max(nrow)), by =.(variable)]</t>
-  </si>
-  <si>
     <t xml:space="preserve">sec038_1t2 &lt;- dcast(sec038_1t, </t>
   </si>
   <si>
@@ -1116,9 +1023,6 @@
     <t>sec077_1t &lt;- sec077_1t [, nrow :=1:.N, by = .(variable)]</t>
   </si>
   <si>
-    <t>max077 &lt;- sec077_1t [, .(max = max(nrow)), by =.(variable)]</t>
-  </si>
-  <si>
     <t xml:space="preserve">sec077_1t2 &lt;- dcast(sec077_1t, </t>
   </si>
   <si>
@@ -1146,9 +1050,6 @@
     <t>sec078_1t &lt;- sec078_1t [, nrow :=1:.N, by = .(variable)]</t>
   </si>
   <si>
-    <t>max078 &lt;- sec078_1t [, .(max = max(nrow)), by =.(variable)]</t>
-  </si>
-  <si>
     <t xml:space="preserve">sec078_1t2 &lt;- dcast(sec078_1t, </t>
   </si>
   <si>
@@ -1176,9 +1077,6 @@
     <t>sec079_1t &lt;- sec079_1t [, nrow :=1:.N, by = .(variable)]</t>
   </si>
   <si>
-    <t>max079 &lt;- sec079_1t [, .(max = max(nrow)), by =.(variable)]</t>
-  </si>
-  <si>
     <t xml:space="preserve">sec079_1t2 &lt;- dcast(sec079_1t, </t>
   </si>
   <si>
@@ -1206,9 +1104,6 @@
     <t>sec080_1t &lt;- sec080_1t [, nrow :=1:.N, by = .(variable)]</t>
   </si>
   <si>
-    <t>max080 &lt;- sec080_1t [, .(max = max(nrow)), by =.(variable)]</t>
-  </si>
-  <si>
     <t xml:space="preserve">sec080_1t2 &lt;- dcast(sec080_1t, </t>
   </si>
   <si>
@@ -1236,9 +1131,6 @@
     <t>sec081_1t &lt;- sec081_1t [, nrow :=1:.N, by = .(variable)]</t>
   </si>
   <si>
-    <t>max081 &lt;- sec081_1t [, .(max = max(nrow)), by =.(variable)]</t>
-  </si>
-  <si>
     <t xml:space="preserve">sec081_1t2 &lt;- dcast(sec081_1t, </t>
   </si>
   <si>
@@ -1266,9 +1158,6 @@
     <t>sec082_1t &lt;- sec082_1t [, nrow :=1:.N, by = .(variable)]</t>
   </si>
   <si>
-    <t>max082 &lt;- sec082_1t [, .(max = max(nrow)), by =.(variable)]</t>
-  </si>
-  <si>
     <t xml:space="preserve">sec082_1t2 &lt;- dcast(sec082_1t, </t>
   </si>
   <si>
@@ -1296,9 +1185,6 @@
     <t>sec083_1t &lt;- sec083_1t [, nrow :=1:.N, by = .(variable)]</t>
   </si>
   <si>
-    <t>max083 &lt;- sec083_1t [, .(max = max(nrow)), by =.(variable)]</t>
-  </si>
-  <si>
     <t xml:space="preserve">sec083_1t2 &lt;- dcast(sec083_1t, </t>
   </si>
   <si>
@@ -1326,9 +1212,6 @@
     <t>sec084_1t &lt;- sec084_1t [, nrow :=1:.N, by = .(variable)]</t>
   </si>
   <si>
-    <t>max084 &lt;- sec084_1t [, .(max = max(nrow)), by =.(variable)]</t>
-  </si>
-  <si>
     <t xml:space="preserve">sec084_1t2 &lt;- dcast(sec084_1t, </t>
   </si>
   <si>
@@ -1356,9 +1239,6 @@
     <t>sec085_1t &lt;- sec085_1t [, nrow :=1:.N, by = .(variable)]</t>
   </si>
   <si>
-    <t>max085 &lt;- sec085_1t [, .(max = max(nrow)), by =.(variable)]</t>
-  </si>
-  <si>
     <t xml:space="preserve">sec085_1t2 &lt;- dcast(sec085_1t, </t>
   </si>
   <si>
@@ -1386,9 +1266,6 @@
     <t>sec086_1t &lt;- sec086_1t [, nrow :=1:.N, by = .(variable)]</t>
   </si>
   <si>
-    <t>max086 &lt;- sec086_1t [, .(max = max(nrow)), by =.(variable)]</t>
-  </si>
-  <si>
     <t xml:space="preserve">sec086_1t2 &lt;- dcast(sec086_1t, </t>
   </si>
   <si>
@@ -1416,9 +1293,6 @@
     <t>sec088_1t &lt;- sec088_1t [, nrow :=1:.N, by = .(variable)]</t>
   </si>
   <si>
-    <t>max088 &lt;- sec088_1t [, .(max = max(nrow)), by =.(variable)]</t>
-  </si>
-  <si>
     <t xml:space="preserve">sec088_1t2 &lt;- dcast(sec088_1t, </t>
   </si>
   <si>
@@ -1446,9 +1320,6 @@
     <t>sec089_1t &lt;- sec089_1t [, nrow :=1:.N, by = .(variable)]</t>
   </si>
   <si>
-    <t>max089 &lt;- sec089_1t [, .(max = max(nrow)), by =.(variable)]</t>
-  </si>
-  <si>
     <t xml:space="preserve">sec089_1t2 &lt;- dcast(sec089_1t, </t>
   </si>
   <si>
@@ -1476,10 +1347,169 @@
     <t>sec099_1t &lt;- sec099_1t [, nrow :=1:.N, by = .(variable)]</t>
   </si>
   <si>
-    <t>max099 &lt;- sec099_1t [, .(max = max(nrow)), by =.(variable)]</t>
-  </si>
-  <si>
     <t xml:space="preserve">sec099_1t2 &lt;- dcast(sec099_1t, </t>
+  </si>
+  <si>
+    <t>secmax001 &lt;- sec001_1t [, .(secmax = max(nrow)), by =.(variable)]</t>
+  </si>
+  <si>
+    <t>secmax002 &lt;- sec002_1t [, .(secmax = max(nrow)), by =.(variable)]</t>
+  </si>
+  <si>
+    <t>secmax003 &lt;- sec003_1t [, .(secmax = max(nrow)), by =.(variable)]</t>
+  </si>
+  <si>
+    <t>secmax004 &lt;- sec004_1t [, .(secmax = max(nrow)), by =.(variable)]</t>
+  </si>
+  <si>
+    <t>secmax006 &lt;- sec006_1t [, .(secmax = max(nrow)), by =.(variable)]</t>
+  </si>
+  <si>
+    <t>secmax007 &lt;- sec007_1t [, .(secmax = max(nrow)), by =.(variable)]</t>
+  </si>
+  <si>
+    <t>secmax008 &lt;- sec008_1t [, .(secmax = max(nrow)), by =.(variable)]</t>
+  </si>
+  <si>
+    <t>secmax009 &lt;- sec009_1t [, .(secmax = max(nrow)), by =.(variable)]</t>
+  </si>
+  <si>
+    <t>secmax010 &lt;- sec010_1t [, .(secmax = max(nrow)), by =.(variable)]</t>
+  </si>
+  <si>
+    <t>secmax011 &lt;- sec011_1t [, .(secmax = max(nrow)), by =.(variable)]</t>
+  </si>
+  <si>
+    <t>secmax012 &lt;- sec012_1t [, .(secmax = max(nrow)), by =.(variable)]</t>
+  </si>
+  <si>
+    <t>secmax013 &lt;- sec013_1t [, .(secmax = max(nrow)), by =.(variable)]</t>
+  </si>
+  <si>
+    <t>secmax014 &lt;- sec014_1t [, .(secmax = max(nrow)), by =.(variable)]</t>
+  </si>
+  <si>
+    <t>secmax017 &lt;- sec017_1t [, .(secmax = max(nrow)), by =.(variable)]</t>
+  </si>
+  <si>
+    <t>secmax019 &lt;- sec019_1t [, .(secmax = max(nrow)), by =.(variable)]</t>
+  </si>
+  <si>
+    <t>secmax020 &lt;- sec020_1t [, .(secmax = max(nrow)), by =.(variable)]</t>
+  </si>
+  <si>
+    <t>secmax021 &lt;- sec021_1t [, .(secmax = max(nrow)), by =.(variable)]</t>
+  </si>
+  <si>
+    <t>secmax022 &lt;- sec022_1t [, .(secmax = max(nrow)), by =.(variable)]</t>
+  </si>
+  <si>
+    <t>secmax023 &lt;- sec023_1t [, .(secmax = max(nrow)), by =.(variable)]</t>
+  </si>
+  <si>
+    <t>secmax024 &lt;- sec024_1t [, .(secmax = max(nrow)), by =.(variable)]</t>
+  </si>
+  <si>
+    <t>secmax026 &lt;- sec026_1t [, .(secmax = max(nrow)), by =.(variable)]</t>
+  </si>
+  <si>
+    <t>secmax027 &lt;- sec027_1t [, .(secmax = max(nrow)), by =.(variable)]</t>
+  </si>
+  <si>
+    <t>secmax030 &lt;- sec030_1t [, .(secmax = max(nrow)), by =.(variable)]</t>
+  </si>
+  <si>
+    <t>secmax031 &lt;- sec031_1t [, .(secmax = max(nrow)), by =.(variable)]</t>
+  </si>
+  <si>
+    <t>secmax032 &lt;- sec032_1t [, .(secmax = max(nrow)), by =.(variable)]</t>
+  </si>
+  <si>
+    <t>secmax033 &lt;- sec033_1t [, .(secmax = max(nrow)), by =.(variable)]</t>
+  </si>
+  <si>
+    <t>secmax034 &lt;- sec034_1t [, .(secmax = max(nrow)), by =.(variable)]</t>
+  </si>
+  <si>
+    <t>secmax035 &lt;- sec035_1t [, .(secmax = max(nrow)), by =.(variable)]</t>
+  </si>
+  <si>
+    <t>secmax036 &lt;- sec036_1t [, .(secmax = max(nrow)), by =.(variable)]</t>
+  </si>
+  <si>
+    <t>secmax037 &lt;- sec037_1t [, .(secmax = max(nrow)), by =.(variable)]</t>
+  </si>
+  <si>
+    <t>secmax038 &lt;- sec038_1t [, .(secmax = max(nrow)), by =.(variable)]</t>
+  </si>
+  <si>
+    <t>secmax077 &lt;- sec077_1t [, .(secmax = max(nrow)), by =.(variable)]</t>
+  </si>
+  <si>
+    <t>secmax078 &lt;- sec078_1t [, .(secmax = max(nrow)), by =.(variable)]</t>
+  </si>
+  <si>
+    <t>secmax079 &lt;- sec079_1t [, .(secmax = max(nrow)), by =.(variable)]</t>
+  </si>
+  <si>
+    <t>secmax080 &lt;- sec080_1t [, .(secmax = max(nrow)), by =.(variable)]</t>
+  </si>
+  <si>
+    <t>secmax081 &lt;- sec081_1t [, .(secmax = max(nrow)), by =.(variable)]</t>
+  </si>
+  <si>
+    <t>secmax082 &lt;- sec082_1t [, .(secmax = max(nrow)), by =.(variable)]</t>
+  </si>
+  <si>
+    <t>secmax083 &lt;- sec083_1t [, .(secmax = max(nrow)), by =.(variable)]</t>
+  </si>
+  <si>
+    <t>secmax084 &lt;- sec084_1t [, .(secmax = max(nrow)), by =.(variable)]</t>
+  </si>
+  <si>
+    <t>secmax085 &lt;- sec085_1t [, .(secmax = max(nrow)), by =.(variable)]</t>
+  </si>
+  <si>
+    <t>secmax086 &lt;- sec086_1t [, .(secmax = max(nrow)), by =.(variable)]</t>
+  </si>
+  <si>
+    <t>secmax088 &lt;- sec088_1t [, .(secmax = max(nrow)), by =.(variable)]</t>
+  </si>
+  <si>
+    <t>secmax089 &lt;- sec089_1t [, .(secmax = max(nrow)), by =.(variable)]</t>
+  </si>
+  <si>
+    <t>secmax099 &lt;- sec099_1t [, .(secmax = max(nrow)), by =.(variable)]</t>
+  </si>
+  <si>
+    <t>sec044 &lt;- readRDS("D:/Hospital_data/ProgresSQL/analysis/sec044.rds")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sec044_1 &lt;- sec044 [, (names(sec044) %in% c("mr_no", "patient_id", "subvis") | </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                         grepl("^sec", names(sec044)) ), with =FALSE]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sec044_1t &lt;- melt (data = sec044_1, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                   measure.vars = grep("^sec", names(sec044), value = TRUE) )</t>
+  </si>
+  <si>
+    <t>sec044_1t &lt;- sec044_1t [, value := toupper(value)] [order(variable, value)]</t>
+  </si>
+  <si>
+    <t>sec044_1t &lt;- unique (sec044_1t [, -c("mr_no", "patient_id", "subvis")])</t>
+  </si>
+  <si>
+    <t>sec044_1t &lt;- sec044_1t [, nrow :=1:.N, by = .(variable)]</t>
+  </si>
+  <si>
+    <t>secmax044 &lt;- sec044_1t [, .(secmax = max(nrow)), by =.(variable)]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sec044_1t2 &lt;- dcast(sec044_1t, </t>
   </si>
 </sst>
 </file>
@@ -1822,7 +1852,7 @@
   <dimension ref="A1:AS17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -1833,139 +1863,139 @@
   <sheetData>
     <row r="1" spans="1:45">
       <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:45">
@@ -1973,136 +2003,136 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="L2" s="1" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="S2" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="U2" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="T2" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>248</v>
-      </c>
       <c r="V2" s="1" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>278</v>
+        <v>255</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>288</v>
+        <v>264</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>298</v>
+        <v>273</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>308</v>
+        <v>282</v>
       </c>
       <c r="AB2" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="AE2" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="AC2" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>348</v>
-      </c>
       <c r="AF2" s="1" t="s">
-        <v>0</v>
+        <v>488</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>358</v>
+        <v>327</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>368</v>
+        <v>336</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>378</v>
+        <v>345</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>388</v>
+        <v>354</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>398</v>
+        <v>363</v>
       </c>
       <c r="AL2" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="AP2" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="AM2" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="AN2" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="AP2" s="1" t="s">
-        <v>448</v>
-      </c>
       <c r="AQ2" s="1" t="s">
-        <v>458</v>
+        <v>417</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>468</v>
+        <v>426</v>
       </c>
       <c r="AS2" s="1" t="s">
-        <v>478</v>
+        <v>435</v>
       </c>
     </row>
     <row r="3" spans="1:45">
@@ -2110,136 +2140,136 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="L3" s="1" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="S3" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="U3" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="T3" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>249</v>
-      </c>
       <c r="V3" s="1" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>269</v>
+        <v>247</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>279</v>
+        <v>256</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>289</v>
+        <v>265</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>299</v>
+        <v>274</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="AB3" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="AE3" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="AC3" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>349</v>
-      </c>
       <c r="AF3" s="1" t="s">
-        <v>1</v>
+        <v>489</v>
       </c>
       <c r="AG3" s="1" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="AH3" s="1" t="s">
-        <v>369</v>
+        <v>337</v>
       </c>
       <c r="AI3" s="1" t="s">
-        <v>379</v>
+        <v>346</v>
       </c>
       <c r="AJ3" s="1" t="s">
-        <v>389</v>
+        <v>355</v>
       </c>
       <c r="AK3" s="1" t="s">
-        <v>399</v>
+        <v>364</v>
       </c>
       <c r="AL3" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="AP3" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="AM3" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="AN3" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="AO3" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="AP3" s="1" t="s">
-        <v>449</v>
-      </c>
       <c r="AQ3" s="1" t="s">
-        <v>459</v>
+        <v>418</v>
       </c>
       <c r="AR3" s="1" t="s">
-        <v>469</v>
+        <v>427</v>
       </c>
       <c r="AS3" s="1" t="s">
-        <v>479</v>
+        <v>436</v>
       </c>
     </row>
     <row r="4" spans="1:45">
@@ -2247,136 +2277,136 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="J4" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>150</v>
-      </c>
       <c r="L4" s="1" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="S4" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="U4" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="T4" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>250</v>
-      </c>
       <c r="V4" s="1" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>280</v>
+        <v>257</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>290</v>
+        <v>266</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>300</v>
+        <v>275</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>310</v>
+        <v>284</v>
       </c>
       <c r="AB4" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="AE4" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="AC4" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="AD4" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="AE4" s="1" t="s">
-        <v>350</v>
-      </c>
       <c r="AF4" s="1" t="s">
-        <v>2</v>
+        <v>490</v>
       </c>
       <c r="AG4" s="1" t="s">
-        <v>360</v>
+        <v>329</v>
       </c>
       <c r="AH4" s="1" t="s">
-        <v>370</v>
+        <v>338</v>
       </c>
       <c r="AI4" s="1" t="s">
-        <v>380</v>
+        <v>347</v>
       </c>
       <c r="AJ4" s="1" t="s">
-        <v>390</v>
+        <v>356</v>
       </c>
       <c r="AK4" s="1" t="s">
-        <v>400</v>
+        <v>365</v>
       </c>
       <c r="AL4" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="AM4" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="AN4" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="AO4" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="AP4" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="AM4" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="AN4" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="AO4" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="AP4" s="1" t="s">
-        <v>450</v>
-      </c>
       <c r="AQ4" s="1" t="s">
-        <v>460</v>
+        <v>419</v>
       </c>
       <c r="AR4" s="1" t="s">
-        <v>470</v>
+        <v>428</v>
       </c>
       <c r="AS4" s="1" t="s">
-        <v>480</v>
+        <v>437</v>
       </c>
     </row>
     <row r="6" spans="1:45">
@@ -2384,136 +2414,136 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>151</v>
-      </c>
       <c r="L6" s="1" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="S6" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="U6" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="T6" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>251</v>
-      </c>
       <c r="V6" s="1" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>271</v>
+        <v>249</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>281</v>
+        <v>258</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>291</v>
+        <v>267</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>301</v>
+        <v>276</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>311</v>
+        <v>285</v>
       </c>
       <c r="AB6" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="AE6" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="AC6" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="AD6" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="AE6" s="1" t="s">
-        <v>351</v>
-      </c>
       <c r="AF6" s="1" t="s">
-        <v>3</v>
+        <v>491</v>
       </c>
       <c r="AG6" s="1" t="s">
-        <v>361</v>
+        <v>330</v>
       </c>
       <c r="AH6" s="1" t="s">
-        <v>371</v>
+        <v>339</v>
       </c>
       <c r="AI6" s="1" t="s">
-        <v>381</v>
+        <v>348</v>
       </c>
       <c r="AJ6" s="1" t="s">
-        <v>391</v>
+        <v>357</v>
       </c>
       <c r="AK6" s="1" t="s">
-        <v>401</v>
+        <v>366</v>
       </c>
       <c r="AL6" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="AM6" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="AN6" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="AO6" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="AP6" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="AM6" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="AN6" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="AO6" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="AP6" s="1" t="s">
-        <v>451</v>
-      </c>
       <c r="AQ6" s="1" t="s">
-        <v>461</v>
+        <v>420</v>
       </c>
       <c r="AR6" s="1" t="s">
-        <v>471</v>
+        <v>429</v>
       </c>
       <c r="AS6" s="1" t="s">
-        <v>481</v>
+        <v>438</v>
       </c>
     </row>
     <row r="7" spans="1:45">
@@ -2658,136 +2688,136 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="J8" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>152</v>
-      </c>
       <c r="L8" s="1" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="S8" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="U8" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="T8" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="U8" s="1" t="s">
-        <v>252</v>
-      </c>
       <c r="V8" s="1" t="s">
-        <v>262</v>
+        <v>241</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>272</v>
+        <v>250</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>282</v>
+        <v>259</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>292</v>
+        <v>268</v>
       </c>
       <c r="Z8" s="1" t="s">
-        <v>302</v>
+        <v>277</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>312</v>
+        <v>286</v>
       </c>
       <c r="AB8" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="AD8" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="AE8" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="AC8" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="AD8" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="AE8" s="1" t="s">
-        <v>352</v>
-      </c>
       <c r="AF8" s="1" t="s">
-        <v>5</v>
+        <v>492</v>
       </c>
       <c r="AG8" s="1" t="s">
-        <v>362</v>
+        <v>331</v>
       </c>
       <c r="AH8" s="1" t="s">
-        <v>372</v>
+        <v>340</v>
       </c>
       <c r="AI8" s="1" t="s">
-        <v>382</v>
+        <v>349</v>
       </c>
       <c r="AJ8" s="1" t="s">
-        <v>392</v>
+        <v>358</v>
       </c>
       <c r="AK8" s="1" t="s">
-        <v>402</v>
+        <v>367</v>
       </c>
       <c r="AL8" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="AM8" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="AN8" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="AO8" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="AP8" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="AM8" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="AN8" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="AO8" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="AP8" s="1" t="s">
-        <v>452</v>
-      </c>
       <c r="AQ8" s="1" t="s">
-        <v>462</v>
+        <v>421</v>
       </c>
       <c r="AR8" s="1" t="s">
-        <v>472</v>
+        <v>430</v>
       </c>
       <c r="AS8" s="1" t="s">
-        <v>482</v>
+        <v>439</v>
       </c>
     </row>
     <row r="9" spans="1:45">
@@ -2795,136 +2825,136 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="J9" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>153</v>
-      </c>
       <c r="L9" s="1" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="S9" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="U9" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="T9" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="U9" s="1" t="s">
-        <v>253</v>
-      </c>
       <c r="V9" s="1" t="s">
-        <v>263</v>
+        <v>242</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>273</v>
+        <v>251</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>283</v>
+        <v>260</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>293</v>
+        <v>269</v>
       </c>
       <c r="Z9" s="1" t="s">
-        <v>303</v>
+        <v>278</v>
       </c>
       <c r="AA9" s="1" t="s">
-        <v>313</v>
+        <v>287</v>
       </c>
       <c r="AB9" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="AC9" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="AD9" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="AE9" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="AC9" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="AD9" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="AE9" s="1" t="s">
-        <v>353</v>
-      </c>
       <c r="AF9" s="1" t="s">
-        <v>6</v>
+        <v>493</v>
       </c>
       <c r="AG9" s="1" t="s">
-        <v>363</v>
+        <v>332</v>
       </c>
       <c r="AH9" s="1" t="s">
-        <v>373</v>
+        <v>341</v>
       </c>
       <c r="AI9" s="1" t="s">
-        <v>383</v>
+        <v>350</v>
       </c>
       <c r="AJ9" s="1" t="s">
-        <v>393</v>
+        <v>359</v>
       </c>
       <c r="AK9" s="1" t="s">
-        <v>403</v>
+        <v>368</v>
       </c>
       <c r="AL9" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="AM9" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="AN9" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="AO9" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="AP9" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="AM9" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="AN9" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="AO9" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="AP9" s="1" t="s">
-        <v>453</v>
-      </c>
       <c r="AQ9" s="1" t="s">
-        <v>463</v>
+        <v>422</v>
       </c>
       <c r="AR9" s="1" t="s">
-        <v>473</v>
+        <v>431</v>
       </c>
       <c r="AS9" s="1" t="s">
-        <v>483</v>
+        <v>440</v>
       </c>
     </row>
     <row r="10" spans="1:45">
@@ -2932,136 +2962,136 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="J10" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="L10" s="1" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="S10" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="U10" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="T10" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="U10" s="1" t="s">
-        <v>254</v>
-      </c>
       <c r="V10" s="1" t="s">
-        <v>264</v>
+        <v>243</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>274</v>
+        <v>252</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>284</v>
+        <v>261</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>294</v>
+        <v>270</v>
       </c>
       <c r="Z10" s="1" t="s">
-        <v>304</v>
+        <v>279</v>
       </c>
       <c r="AA10" s="1" t="s">
-        <v>314</v>
+        <v>288</v>
       </c>
       <c r="AB10" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="AC10" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="AD10" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="AE10" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="AC10" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="AD10" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="AE10" s="1" t="s">
-        <v>354</v>
-      </c>
       <c r="AF10" s="1" t="s">
-        <v>7</v>
+        <v>494</v>
       </c>
       <c r="AG10" s="1" t="s">
-        <v>364</v>
+        <v>333</v>
       </c>
       <c r="AH10" s="1" t="s">
-        <v>374</v>
+        <v>342</v>
       </c>
       <c r="AI10" s="1" t="s">
-        <v>384</v>
+        <v>351</v>
       </c>
       <c r="AJ10" s="1" t="s">
-        <v>394</v>
+        <v>360</v>
       </c>
       <c r="AK10" s="1" t="s">
-        <v>404</v>
+        <v>369</v>
       </c>
       <c r="AL10" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="AM10" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="AN10" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="AO10" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="AP10" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="AM10" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="AN10" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="AO10" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="AP10" s="1" t="s">
-        <v>454</v>
-      </c>
       <c r="AQ10" s="1" t="s">
-        <v>464</v>
+        <v>423</v>
       </c>
       <c r="AR10" s="1" t="s">
-        <v>474</v>
+        <v>432</v>
       </c>
       <c r="AS10" s="1" t="s">
-        <v>484</v>
+        <v>441</v>
       </c>
     </row>
     <row r="12" spans="1:45">
@@ -3069,684 +3099,684 @@
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="J12" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="K12" s="1" t="s">
-        <v>155</v>
-      </c>
       <c r="L12" s="1" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="S12" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="U12" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="T12" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="U12" s="1" t="s">
-        <v>255</v>
-      </c>
       <c r="V12" s="1" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="X12" s="1" t="s">
-        <v>285</v>
+        <v>262</v>
       </c>
       <c r="Y12" s="1" t="s">
-        <v>295</v>
+        <v>271</v>
       </c>
       <c r="Z12" s="1" t="s">
-        <v>305</v>
+        <v>280</v>
       </c>
       <c r="AA12" s="1" t="s">
-        <v>315</v>
+        <v>289</v>
       </c>
       <c r="AB12" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="AC12" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="AD12" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="AE12" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="AC12" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="AD12" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="AE12" s="1" t="s">
-        <v>355</v>
-      </c>
       <c r="AF12" s="1" t="s">
-        <v>8</v>
+        <v>495</v>
       </c>
       <c r="AG12" s="1" t="s">
-        <v>365</v>
+        <v>334</v>
       </c>
       <c r="AH12" s="1" t="s">
-        <v>375</v>
+        <v>343</v>
       </c>
       <c r="AI12" s="1" t="s">
-        <v>385</v>
+        <v>352</v>
       </c>
       <c r="AJ12" s="1" t="s">
-        <v>395</v>
+        <v>361</v>
       </c>
       <c r="AK12" s="1" t="s">
-        <v>405</v>
+        <v>370</v>
       </c>
       <c r="AL12" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="AM12" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="AN12" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="AO12" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AP12" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="AM12" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="AN12" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="AO12" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="AP12" s="1" t="s">
-        <v>455</v>
-      </c>
       <c r="AQ12" s="1" t="s">
-        <v>465</v>
+        <v>424</v>
       </c>
       <c r="AR12" s="1" t="s">
-        <v>475</v>
+        <v>433</v>
       </c>
       <c r="AS12" s="1" t="s">
-        <v>485</v>
+        <v>442</v>
       </c>
     </row>
     <row r="14" spans="1:45">
       <c r="A14" s="1" t="s">
-        <v>9</v>
+        <v>444</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>66</v>
+        <v>445</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>76</v>
+        <v>446</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>86</v>
+        <v>447</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>96</v>
+        <v>448</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>106</v>
+        <v>449</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>116</v>
+        <v>450</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>126</v>
+        <v>451</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>136</v>
+        <v>452</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>146</v>
+        <v>453</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>156</v>
+        <v>454</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>166</v>
+        <v>455</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>176</v>
+        <v>456</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>186</v>
+        <v>457</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>196</v>
+        <v>458</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>206</v>
+        <v>459</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>216</v>
+        <v>460</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>226</v>
+        <v>461</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>236</v>
+        <v>462</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>246</v>
+        <v>463</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>256</v>
+        <v>464</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>266</v>
+        <v>465</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>276</v>
+        <v>466</v>
       </c>
       <c r="X14" s="1" t="s">
-        <v>286</v>
+        <v>467</v>
       </c>
       <c r="Y14" s="1" t="s">
-        <v>296</v>
+        <v>468</v>
       </c>
       <c r="Z14" s="1" t="s">
-        <v>306</v>
+        <v>469</v>
       </c>
       <c r="AA14" s="1" t="s">
-        <v>316</v>
+        <v>470</v>
       </c>
       <c r="AB14" s="1" t="s">
-        <v>326</v>
+        <v>471</v>
       </c>
       <c r="AC14" s="1" t="s">
-        <v>336</v>
+        <v>472</v>
       </c>
       <c r="AD14" s="1" t="s">
-        <v>346</v>
+        <v>473</v>
       </c>
       <c r="AE14" s="1" t="s">
-        <v>356</v>
+        <v>474</v>
       </c>
       <c r="AF14" s="1" t="s">
-        <v>9</v>
+        <v>496</v>
       </c>
       <c r="AG14" s="1" t="s">
-        <v>366</v>
+        <v>475</v>
       </c>
       <c r="AH14" s="1" t="s">
-        <v>376</v>
+        <v>476</v>
       </c>
       <c r="AI14" s="1" t="s">
-        <v>386</v>
+        <v>477</v>
       </c>
       <c r="AJ14" s="1" t="s">
-        <v>396</v>
+        <v>478</v>
       </c>
       <c r="AK14" s="1" t="s">
-        <v>406</v>
+        <v>479</v>
       </c>
       <c r="AL14" s="1" t="s">
-        <v>416</v>
+        <v>480</v>
       </c>
       <c r="AM14" s="1" t="s">
-        <v>426</v>
+        <v>481</v>
       </c>
       <c r="AN14" s="1" t="s">
-        <v>436</v>
+        <v>482</v>
       </c>
       <c r="AO14" s="1" t="s">
-        <v>446</v>
+        <v>483</v>
       </c>
       <c r="AP14" s="1" t="s">
-        <v>456</v>
+        <v>484</v>
       </c>
       <c r="AQ14" s="1" t="s">
-        <v>466</v>
+        <v>485</v>
       </c>
       <c r="AR14" s="1" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="AS14" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="15" spans="1:45">
       <c r="A15" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="I15" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="J15" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="K15" s="1" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="R15" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="T15" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="S15" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="T15" s="1" t="s">
-        <v>247</v>
-      </c>
       <c r="U15" s="1" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>277</v>
+        <v>254</v>
       </c>
       <c r="X15" s="1" t="s">
-        <v>287</v>
+        <v>263</v>
       </c>
       <c r="Y15" s="1" t="s">
-        <v>297</v>
+        <v>272</v>
       </c>
       <c r="Z15" s="1" t="s">
-        <v>307</v>
+        <v>281</v>
       </c>
       <c r="AA15" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="AB15" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="AC15" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="AD15" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="AB15" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="AC15" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="AD15" s="1" t="s">
-        <v>347</v>
-      </c>
       <c r="AE15" s="1" t="s">
-        <v>357</v>
+        <v>326</v>
       </c>
       <c r="AF15" s="1" t="s">
-        <v>10</v>
+        <v>497</v>
       </c>
       <c r="AG15" s="1" t="s">
-        <v>367</v>
+        <v>335</v>
       </c>
       <c r="AH15" s="1" t="s">
-        <v>377</v>
+        <v>344</v>
       </c>
       <c r="AI15" s="1" t="s">
-        <v>387</v>
+        <v>353</v>
       </c>
       <c r="AJ15" s="1" t="s">
-        <v>397</v>
+        <v>362</v>
       </c>
       <c r="AK15" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="AL15" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="AM15" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="AN15" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="AO15" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="AL15" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="AM15" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="AN15" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="AO15" s="1" t="s">
-        <v>447</v>
-      </c>
       <c r="AP15" s="1" t="s">
-        <v>457</v>
+        <v>416</v>
       </c>
       <c r="AQ15" s="1" t="s">
-        <v>467</v>
+        <v>425</v>
       </c>
       <c r="AR15" s="1" t="s">
-        <v>477</v>
+        <v>434</v>
       </c>
       <c r="AS15" s="1" t="s">
-        <v>487</v>
+        <v>443</v>
       </c>
     </row>
     <row r="16" spans="1:45">
       <c r="A16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AS16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:45">
       <c r="A17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AQ17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AS17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
